--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -12,27 +12,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
-    <t>Vehicle Type</t>
+    <t>Vehicle ID</t>
+  </si>
+  <si>
+    <t>Vehicle Name</t>
   </si>
   <si>
     <t>Fuel Type</t>
   </si>
   <si>
-    <t>MPG</t>
+    <t>Mileage Unit</t>
   </si>
   <si>
-    <t>car</t>
+    <t>Mileage Value</t>
   </si>
   <si>
-    <t>petrol</t>
+    <t>Remarks</t>
   </si>
   <si>
-    <t>bus</t>
+    <t>V101</t>
   </si>
   <si>
-    <t>disel</t>
+    <t>Bus</t>
+  </si>
+  <si>
+    <t>disel:f102</t>
+  </si>
+  <si>
+    <t>mpg</t>
+  </si>
+  <si>
+    <t>This is a commuter bus</t>
   </si>
 </sst>
 </file>
@@ -77,7 +89,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -93,27 +105,34 @@
       <c r="C1" t="s" s="0">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="0">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="0">
+        <v>5</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s" s="0">
-        <v>4</v>
+        <v>7</v>
       </c>
-      <c r="C2" t="n" s="0">
-        <v>32.0</v>
+      <c r="C2" t="s" s="0">
+        <v>8</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="0">
-        <v>5</v>
+      <c r="D2" t="s" s="0">
+        <v>9</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>6</v>
+      <c r="E2" t="n" s="0">
+        <v>15.0</v>
       </c>
-      <c r="C3" t="n" s="0">
-        <v>15.0</v>
+      <c r="F2" t="s" s="0">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/vehicles.xlsx
+++ b/vehicles.xlsx
@@ -32,7 +32,7 @@
     <t>Remarks</t>
   </si>
   <si>
-    <t>V101</t>
+    <t>v101</t>
   </si>
   <si>
     <t>Bus</t>
